--- a/TrailerPlan.xlsx
+++ b/TrailerPlan.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caras\UnityProjects\TheNewRecipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105967C3-0459-4B2A-B5E6-0725091FA9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3AB0A2-5744-4C16-926F-B76CB15F7747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Shots</t>
   </si>
@@ -91,6 +100,18 @@
   </si>
   <si>
     <t>Movie_001</t>
+  </si>
+  <si>
+    <t>In the beginning, there was a recipe</t>
+  </si>
+  <si>
+    <t>Narration</t>
+  </si>
+  <si>
+    <t>Total (aim for 0:50)</t>
+  </si>
+  <si>
+    <t>It was passed down from father to son, through uncounted generations, with modest improvements made along the way</t>
   </si>
 </sst>
 </file>
@@ -426,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,9 +459,10 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="122" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,59 +478,68 @@
       <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7.1527777777777787E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7.9861111111111105E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6.9444444444444441E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -523,29 +554,29 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>4.9999999999999996E-2</v>
+        <v>7.1527777777777787E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>5.486111111111111E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>4.8611111111111112E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -553,33 +584,45 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUM(E2:E10)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
